--- a/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,41</t>
+          <t>1,12; 13,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 3,17</t>
+          <t>-9,8; 4,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 10,68</t>
+          <t>-6,62; 11,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 1,18</t>
+          <t>-21,71; 0,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 1395,03</t>
+          <t>-9,86; 1288,97</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 63,13</t>
+          <t>-72,5; 64,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 124,54</t>
+          <t>-38,29; 130,95</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 4,81</t>
+          <t>-48,39; 4,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,44</t>
+          <t>-2,28; 3,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 6,67</t>
+          <t>-0,3; 6,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 3,35</t>
+          <t>-4,48; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -0,47</t>
+          <t>-9,35; -0,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 75,26</t>
+          <t>-31,29; 81,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 106,45</t>
+          <t>-5,01; 106,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 31,7</t>
+          <t>-31,57; 35,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,55; -1,76</t>
+          <t>-36,57; -2,08</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,58</t>
+          <t>-0,14; 4,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,56</t>
+          <t>-2,62; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,24</t>
+          <t>-3,77; 1,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,03</t>
+          <t>-2,15; 4,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 104,59</t>
+          <t>-2,53; 104,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 42,23</t>
+          <t>-29,44; 39,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 24,29</t>
+          <t>-32,11; 21,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 32,04</t>
+          <t>-12,63; 33,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 5,66</t>
+          <t>-0,61; 5,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,91</t>
+          <t>-2,34; 3,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,83</t>
+          <t>-4,07; 2,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -0,04</t>
+          <t>-8,87; -0,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 92,73</t>
+          <t>-6,55; 96,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 63,4</t>
+          <t>-24,77; 56,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 24,87</t>
+          <t>-27,63; 26,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,09; -0,73</t>
+          <t>-50,01; -0,74</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,58</t>
+          <t>-3,18; 2,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,39</t>
+          <t>0,94; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,99</t>
+          <t>-0,2; 6,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,12</t>
+          <t>0,73; 7,43</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 31,58</t>
+          <t>-27,75; 25,56</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 78,6</t>
+          <t>8,38; 83,79</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 54,24</t>
+          <t>-1,23; 50,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 45,15</t>
+          <t>3,73; 46,36</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>-0,05; 2,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,96</t>
+          <t>0,27; 2,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-1,06; 2,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 1,3</t>
+          <t>-2,67; 1,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>-0,05; 43,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,4</t>
+          <t>2,99; 39,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,39</t>
+          <t>-7,96; 19,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 7,62</t>
+          <t>-14,38; 8,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,12; 13,13</t>
+          <t>1,02; 13,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 4,2</t>
+          <t>-10,8; 3,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 11,58</t>
+          <t>-7,68; 10,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 1288,97</t>
+          <t>-15,42; 1153,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,5; 64,72</t>
+          <t>-78,61; 61,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 130,95</t>
+          <t>-44,32; 115,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,59</t>
+          <t>-2,11; 3,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 6,53</t>
+          <t>-0,21; 6,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 3,55</t>
+          <t>-4,51; 3,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,29; 81,7</t>
+          <t>-29,72; 84,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 106,65</t>
+          <t>-4,72; 106,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,57; 35,92</t>
+          <t>-31,78; 33,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,69</t>
+          <t>0,02; 4,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,41</t>
+          <t>-2,35; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 1,99</t>
+          <t>-3,49; 2,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 104,86</t>
+          <t>-0,55; 100,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,44; 39,0</t>
+          <t>-28,0; 37,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 21,97</t>
+          <t>-28,73; 24,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 5,86</t>
+          <t>-0,36; 5,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 3,65</t>
+          <t>-2,47; 3,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 2,92</t>
+          <t>-4,07; 3,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 96,43</t>
+          <t>-4,85; 95,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 56,28</t>
+          <t>-26,39; 54,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 26,21</t>
+          <t>-27,04; 26,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 2,12</t>
+          <t>-3,12; 2,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 6,83</t>
+          <t>0,68; 6,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 6,66</t>
+          <t>-0,41; 6,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 25,56</t>
+          <t>-28,23; 27,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,38; 83,79</t>
+          <t>5,67; 83,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 50,56</t>
+          <t>-2,83; 50,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 2,8</t>
+          <t>0,07; 2,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,98</t>
+          <t>0,22; 3,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 2,3</t>
+          <t>-1,0; 2,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 43,38</t>
+          <t>0,47; 43,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,99; 39,28</t>
+          <t>2,54; 40,07</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 19,18</t>
+          <t>-7,64; 19,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 13,44</t>
+          <t>0,95; 13,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 3,29</t>
+          <t>-10,92; 3,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 10,97</t>
+          <t>-7,43; 10,68</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 0,89</t>
+          <t>-21,15; 1,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 1153,51</t>
+          <t>-9,66; 1395,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-78,61; 61,76</t>
+          <t>-75,63; 63,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 115,0</t>
+          <t>-40,34; 124,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 4,83</t>
+          <t>-49,54; 4,81</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,79</t>
+          <t>-2,36; 3,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 6,69</t>
+          <t>-0,0; 6,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,28</t>
+          <t>-4,52; 3,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -0,35</t>
+          <t>-9,84; -0,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-29,72; 84,13</t>
+          <t>-30,75; 75,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 106,59</t>
+          <t>-0,81; 106,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 33,21</t>
+          <t>-33,12; 31,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,57; -2,08</t>
+          <t>-37,55; -1,76</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,66</t>
+          <t>-0,31; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,27</t>
+          <t>-2,37; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 2,28</t>
+          <t>-3,2; 2,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 4,25</t>
+          <t>-2,34; 4,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 100,87</t>
+          <t>-4,1; 104,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,0; 37,63</t>
+          <t>-27,61; 42,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 24,31</t>
+          <t>-27,41; 24,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,63; 33,28</t>
+          <t>-13,3; 32,04</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,85</t>
+          <t>-0,45; 5,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 3,52</t>
+          <t>-2,28; 3,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,15</t>
+          <t>-4,36; 2,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -0,03</t>
+          <t>-9,16; -0,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 95,0</t>
+          <t>-5,5; 92,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-26,39; 54,16</t>
+          <t>-23,64; 63,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,04; 26,98</t>
+          <t>-29,45; 24,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,01; -0,74</t>
+          <t>-50,09; -0,73</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 2,35</t>
+          <t>-2,92; 2,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,83</t>
+          <t>0,6; 6,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 6,66</t>
+          <t>-0,02; 6,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,43</t>
+          <t>0,63; 7,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 27,12</t>
+          <t>-25,42; 31,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,67; 83,14</t>
+          <t>4,81; 78,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 50,37</t>
+          <t>-0,07; 54,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 46,36</t>
+          <t>2,79; 45,15</t>
         </is>
       </c>
     </row>
@@ -1173,37 +1173,37 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,03</t>
+          <t>0,1; 2,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,33</t>
+          <t>-0,88; 2,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,39</t>
+          <t>-2,6; 1,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 43,25</t>
+          <t>0,89; 44,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,54; 40,07</t>
+          <t>1,07; 39,4</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 19,87</t>
+          <t>-6,68; 20,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-14,38; 8,3</t>
+          <t>-13,93; 7,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-10,01</t>
+          <t>-6,12</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>243,03%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-34,66%</t>
+          <t>24,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>-1,89%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-28,26%</t>
+          <t>-24,51%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,95; 13,41</t>
+          <t>-1,01; 3,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 3,17</t>
+          <t>-0,85; 5,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 10,68</t>
+          <t>-4,13; 3,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 1,18</t>
+          <t>-11,37; -1,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 1395,03</t>
+          <t>-17,33; 90,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-75,63; 63,13</t>
+          <t>-10,37; 76,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 124,54</t>
+          <t>-28,09; 31,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 4,81</t>
+          <t>-40,85; -8,15</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>2,21</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>3,53</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>38,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>-0,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-5,52%</t>
+          <t>-5,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-20,29%</t>
+          <t>28,43%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 3,44</t>
+          <t>-0,31; 4,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 6,67</t>
+          <t>-2,37; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 3,35</t>
+          <t>-3,2; 2,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-9,84; -0,47</t>
+          <t>-0,63; 10,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,75; 75,26</t>
+          <t>-4,1; 104,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 106,45</t>
+          <t>-27,61; 42,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 31,7</t>
+          <t>-27,41; 24,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-37,55; -1,76</t>
+          <t>-4,83; 160,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,21</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,44%</t>
+          <t>35,78%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,67%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-5,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>-34,89%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,58</t>
+          <t>-0,45; 5,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,56</t>
+          <t>-2,28; 3,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,24</t>
+          <t>-4,36; 2,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 4,03</t>
+          <t>-12,01; -1,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 104,59</t>
+          <t>-5,5; 92,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 42,23</t>
+          <t>-23,64; 63,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 24,29</t>
+          <t>-29,45; 24,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 32,04</t>
+          <t>-67,32; -8,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,25%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,88%</t>
+          <t>14,39%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 5,66</t>
+          <t>-2,92; 2,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,91</t>
+          <t>0,6; 6,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,83</t>
+          <t>-0,02; 6,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,16; -0,04</t>
+          <t>-2,19; 5,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 92,73</t>
+          <t>-25,42; 31,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 63,4</t>
+          <t>4,81; 78,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 24,87</t>
+          <t>-0,07; 54,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,09; -0,73</t>
+          <t>-11,55; 36,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>19,62%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>22,58%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22,94%</t>
+          <t>-3,08%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,58</t>
+          <t>0,07; 2,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,39</t>
+          <t>0,1; 2,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,99</t>
+          <t>-0,88; 2,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,12</t>
+          <t>-3,51; 2,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 31,58</t>
+          <t>0,89; 44,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 78,6</t>
+          <t>1,07; 39,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 54,24</t>
+          <t>-6,68; 20,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 45,15</t>
+          <t>-19,72; 17,9</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>20,32%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19,62%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-2,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,07; 2,84</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 2,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-0,88; 2,41</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-2,6; 1,3</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,89; 44,49</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 39,4</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 20,39</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-13,93; 7,62</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 3,92</t>
+          <t>-1,09; 4,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,3</t>
+          <t>-1,54; 4,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 3,27</t>
+          <t>-3,95; 3,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -1,78</t>
+          <t>-11,44; -1,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 90,05</t>
+          <t>-16,98; 90,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 76,16</t>
+          <t>-15,96; 72,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,09; 31,25</t>
+          <t>-28,16; 31,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-40,85; -8,15</t>
+          <t>-42,54; -8,37</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 4,58</t>
+          <t>-0,04; 4,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 2,56</t>
+          <t>-2,38; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 2,24</t>
+          <t>-3,19; 2,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 10,0</t>
+          <t>-0,87; 10,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 104,59</t>
+          <t>-0,49; 105,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 42,23</t>
+          <t>-28,0; 35,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-27,41; 24,29</t>
+          <t>-27,42; 26,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 160,78</t>
+          <t>-5,34; 145,93</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 5,66</t>
+          <t>-0,62; 5,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,91</t>
+          <t>-2,52; 3,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 2,83</t>
+          <t>-4,33; 3,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -1,25</t>
+          <t>-12,06; -0,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,5; 92,73</t>
+          <t>-7,56; 93,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,64; 63,4</t>
+          <t>-26,61; 52,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,45; 24,87</t>
+          <t>-28,74; 27,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-67,32; -8,74</t>
+          <t>-66,92; -7,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 2,58</t>
+          <t>-3,26; 2,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,39</t>
+          <t>0,51; 6,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 6,99</t>
+          <t>0,0; 6,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 5,78</t>
+          <t>-2,3; 6,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 31,58</t>
+          <t>-27,74; 23,54</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,81; 78,6</t>
+          <t>4,16; 80,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 54,24</t>
+          <t>-1,53; 55,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 36,9</t>
+          <t>-11,22; 40,64</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,07; 2,84</t>
+          <t>0,11; 2,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,1; 2,96</t>
+          <t>0,06; 2,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,41</t>
+          <t>-1,18; 2,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 2,79</t>
+          <t>-3,79; 2,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 44,49</t>
+          <t>1,9; 42,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 39,4</t>
+          <t>0,53; 38,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 20,39</t>
+          <t>-8,67; 20,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 17,9</t>
+          <t>-20,94; 18,47</t>
         </is>
       </c>
     </row>
